--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntn2-Cntnap2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cntn2-Cntnap2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Cntn2</t>
+  </si>
+  <si>
+    <t>Cntnap2</t>
+  </si>
+  <si>
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Cntn2</t>
-  </si>
-  <si>
-    <t>Cntnap2</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,14 +525,14 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -540,16 +540,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.023556</v>
+        <v>0.04141366666666667</v>
       </c>
       <c r="H2">
-        <v>0.07066799999999999</v>
+        <v>0.124241</v>
       </c>
       <c r="I2">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="J2">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.0006243333333333334</v>
+        <v>0.000173</v>
       </c>
       <c r="N2">
-        <v>0.001873</v>
+        <v>0.000519</v>
       </c>
       <c r="O2">
-        <v>0.006676814378856635</v>
+        <v>0.006885846202833944</v>
       </c>
       <c r="P2">
-        <v>0.006676814378856637</v>
+        <v>0.006885846202833943</v>
       </c>
       <c r="Q2">
-        <v>1.4706796E-05</v>
+        <v>7.164564333333334E-06</v>
       </c>
       <c r="R2">
-        <v>0.000132361164</v>
+        <v>6.4481079E-05</v>
       </c>
       <c r="S2">
-        <v>0.001730064821085626</v>
+        <v>0.004354642814679433</v>
       </c>
       <c r="T2">
-        <v>0.001730064821085627</v>
+        <v>0.004354642814679433</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +587,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -602,16 +602,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.023556</v>
+        <v>0.04141366666666667</v>
       </c>
       <c r="H3">
-        <v>0.07066799999999999</v>
+        <v>0.124241</v>
       </c>
       <c r="I3">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="J3">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,25 +623,25 @@
         <v>0.01787933333333333</v>
       </c>
       <c r="N3">
-        <v>0.053638</v>
+        <v>0.05363800000000001</v>
       </c>
       <c r="O3">
-        <v>0.1912071380956285</v>
+        <v>0.7116435811707267</v>
       </c>
       <c r="P3">
-        <v>0.1912071380956285</v>
+        <v>0.7116435811707266</v>
       </c>
       <c r="Q3">
-        <v>0.000421165576</v>
+        <v>0.0007404487508888889</v>
       </c>
       <c r="R3">
-        <v>0.003790490184</v>
+        <v>0.006664038758000001</v>
       </c>
       <c r="S3">
-        <v>0.04954469667559573</v>
+        <v>0.4500468811055404</v>
       </c>
       <c r="T3">
-        <v>0.04954469667559575</v>
+        <v>0.4500468811055403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
       </c>
-      <c r="C4" t="s">
-        <v>25</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -664,46 +664,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.023556</v>
+        <v>0.04141366666666667</v>
       </c>
       <c r="H4">
-        <v>0.07066799999999999</v>
+        <v>0.124241</v>
       </c>
       <c r="I4">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="J4">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07204000000000001</v>
+        <v>0.004882333333333333</v>
       </c>
       <c r="N4">
-        <v>0.21612</v>
+        <v>0.014647</v>
       </c>
       <c r="O4">
-        <v>0.770418111883874</v>
+        <v>0.1943294592156239</v>
       </c>
       <c r="P4">
-        <v>0.7704181118838742</v>
+        <v>0.1943294592156238</v>
       </c>
       <c r="Q4">
-        <v>0.00169697424</v>
+        <v>0.0002021953252222222</v>
       </c>
       <c r="R4">
-        <v>0.01527276816</v>
+        <v>0.001819757927</v>
       </c>
       <c r="S4">
-        <v>0.1996271271398962</v>
+        <v>0.1228949003980918</v>
       </c>
       <c r="T4">
-        <v>0.1996271271398962</v>
+        <v>0.1228949003980918</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -726,46 +726,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.023556</v>
+        <v>0.04141366666666667</v>
       </c>
       <c r="H5">
-        <v>0.07066799999999999</v>
+        <v>0.124241</v>
       </c>
       <c r="I5">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="J5">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.002840666666666667</v>
+        <v>0.002042</v>
       </c>
       <c r="N5">
-        <v>0.008522</v>
+        <v>0.006126</v>
       </c>
       <c r="O5">
-        <v>0.03037897070828417</v>
+        <v>0.08127686674096482</v>
       </c>
       <c r="P5">
-        <v>0.03037897070828417</v>
+        <v>0.08127686674096481</v>
       </c>
       <c r="Q5">
-        <v>6.6914744E-05</v>
+        <v>8.456670733333333E-05</v>
       </c>
       <c r="R5">
-        <v>0.000602232696</v>
+        <v>0.0007611003660000001</v>
       </c>
       <c r="S5">
-        <v>0.007871656382964071</v>
+        <v>0.05139988802066706</v>
       </c>
       <c r="T5">
-        <v>0.007871656382964075</v>
+        <v>0.05139988802066706</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -788,16 +788,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.023556</v>
+        <v>0.04141366666666667</v>
       </c>
       <c r="H6">
-        <v>0.07066799999999999</v>
+        <v>0.124241</v>
       </c>
       <c r="I6">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="J6">
-        <v>0.2591153090258426</v>
+        <v>0.6324048906127518</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.0001233333333333333</v>
+        <v>0.0001473333333333333</v>
       </c>
       <c r="N6">
-        <v>0.00037</v>
+        <v>0.000442</v>
       </c>
       <c r="O6">
-        <v>0.001318964933356623</v>
+        <v>0.005864246669850874</v>
       </c>
       <c r="P6">
-        <v>0.001318964933356623</v>
+        <v>0.005864246669850873</v>
       </c>
       <c r="Q6">
-        <v>2.90524E-06</v>
+        <v>6.101613555555556E-06</v>
       </c>
       <c r="R6">
-        <v>2.614716E-05</v>
+        <v>5.4914522E-05</v>
       </c>
       <c r="S6">
-        <v>0.0003417640063009512</v>
+        <v>0.003708578273773236</v>
       </c>
       <c r="T6">
-        <v>0.0003417640063009513</v>
+        <v>0.003708578273773236</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,14 +835,14 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>20</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -850,16 +850,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.04141366666666667</v>
+        <v>0.01422266666666667</v>
       </c>
       <c r="H7">
-        <v>0.124241</v>
+        <v>0.042668</v>
       </c>
       <c r="I7">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="J7">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -868,28 +868,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.0006243333333333334</v>
+        <v>0.000173</v>
       </c>
       <c r="N7">
-        <v>0.001873</v>
+        <v>0.000519</v>
       </c>
       <c r="O7">
-        <v>0.006676814378856635</v>
+        <v>0.006885846202833944</v>
       </c>
       <c r="P7">
-        <v>0.006676814378856637</v>
+        <v>0.006885846202833943</v>
       </c>
       <c r="Q7">
-        <v>2.585593255555556E-05</v>
+        <v>2.460521333333333E-06</v>
       </c>
       <c r="R7">
-        <v>0.000232703393</v>
+        <v>2.2144692E-05</v>
       </c>
       <c r="S7">
-        <v>0.003041616904914521</v>
+        <v>0.001495511945466811</v>
       </c>
       <c r="T7">
-        <v>0.003041616904914521</v>
+        <v>0.001495511945466811</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -912,16 +912,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.04141366666666667</v>
+        <v>0.01422266666666667</v>
       </c>
       <c r="H8">
-        <v>0.124241</v>
+        <v>0.042668</v>
       </c>
       <c r="I8">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="J8">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,25 +933,25 @@
         <v>0.01787933333333333</v>
       </c>
       <c r="N8">
-        <v>0.053638</v>
+        <v>0.05363800000000001</v>
       </c>
       <c r="O8">
-        <v>0.1912071380956285</v>
+        <v>0.7116435811707267</v>
       </c>
       <c r="P8">
-        <v>0.1912071380956285</v>
+        <v>0.7116435811707266</v>
       </c>
       <c r="Q8">
-        <v>0.0007404487508888889</v>
+        <v>0.0002542917982222222</v>
       </c>
       <c r="R8">
-        <v>0.006664038758</v>
+        <v>0.002288626184</v>
       </c>
       <c r="S8">
-        <v>0.08710424321719436</v>
+        <v>0.1545592865721557</v>
       </c>
       <c r="T8">
-        <v>0.08710424321719437</v>
+        <v>0.1545592865721557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -974,46 +974,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.04141366666666667</v>
+        <v>0.01422266666666667</v>
       </c>
       <c r="H9">
-        <v>0.124241</v>
+        <v>0.042668</v>
       </c>
       <c r="I9">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="J9">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.07204000000000001</v>
+        <v>0.004882333333333333</v>
       </c>
       <c r="N9">
-        <v>0.21612</v>
+        <v>0.014647</v>
       </c>
       <c r="O9">
-        <v>0.770418111883874</v>
+        <v>0.1943294592156239</v>
       </c>
       <c r="P9">
-        <v>0.7704181118838742</v>
+        <v>0.1943294592156238</v>
       </c>
       <c r="Q9">
-        <v>0.002983440546666667</v>
+        <v>6.943979955555555E-05</v>
       </c>
       <c r="R9">
-        <v>0.02685096492</v>
+        <v>0.000624958196</v>
       </c>
       <c r="S9">
-        <v>0.3509632917726248</v>
+        <v>0.04220570995231672</v>
       </c>
       <c r="T9">
-        <v>0.3509632917726249</v>
+        <v>0.04220570995231672</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1036,46 +1036,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.04141366666666667</v>
+        <v>0.01422266666666667</v>
       </c>
       <c r="H10">
-        <v>0.124241</v>
+        <v>0.042668</v>
       </c>
       <c r="I10">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="J10">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.002840666666666667</v>
+        <v>0.002042</v>
       </c>
       <c r="N10">
-        <v>0.008522</v>
+        <v>0.006126</v>
       </c>
       <c r="O10">
-        <v>0.03037897070828417</v>
+        <v>0.08127686674096482</v>
       </c>
       <c r="P10">
-        <v>0.03037897070828417</v>
+        <v>0.08127686674096481</v>
       </c>
       <c r="Q10">
-        <v>0.0001176424224444445</v>
+        <v>2.904268533333333E-05</v>
       </c>
       <c r="R10">
-        <v>0.001058781802</v>
+        <v>0.000261384168</v>
       </c>
       <c r="S10">
-        <v>0.01383911332818021</v>
+        <v>0.01765222770314005</v>
       </c>
       <c r="T10">
-        <v>0.01383911332818022</v>
+        <v>0.01765222770314004</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1098,16 +1098,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.04141366666666667</v>
+        <v>0.01422266666666667</v>
       </c>
       <c r="H11">
-        <v>0.124241</v>
+        <v>0.042668</v>
       </c>
       <c r="I11">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="J11">
-        <v>0.455549118535684</v>
+        <v>0.2171863706237465</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1116,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.0001233333333333333</v>
+        <v>0.0001473333333333333</v>
       </c>
       <c r="N11">
-        <v>0.00037</v>
+        <v>0.000442</v>
       </c>
       <c r="O11">
-        <v>0.001318964933356623</v>
+        <v>0.005864246669850874</v>
       </c>
       <c r="P11">
-        <v>0.001318964933356623</v>
+        <v>0.005864246669850873</v>
       </c>
       <c r="Q11">
-        <v>5.107685555555556E-06</v>
+        <v>2.095472888888889E-06</v>
       </c>
       <c r="R11">
-        <v>4.596917E-05</v>
+        <v>1.8859256E-05</v>
       </c>
       <c r="S11">
-        <v>0.0006008533127700868</v>
+        <v>0.001273634450667303</v>
       </c>
       <c r="T11">
-        <v>0.0006008533127700869</v>
+        <v>0.001273634450667303</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,14 +1145,14 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
         <v>1</v>
       </c>
@@ -1160,16 +1160,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01422266666666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="H12">
-        <v>0.042668</v>
+        <v>0.029549</v>
       </c>
       <c r="I12">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="J12">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1178,28 +1178,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.0006243333333333334</v>
+        <v>0.000173</v>
       </c>
       <c r="N12">
-        <v>0.001873</v>
+        <v>0.000519</v>
       </c>
       <c r="O12">
-        <v>0.006676814378856635</v>
+        <v>0.006885846202833944</v>
       </c>
       <c r="P12">
-        <v>0.006676814378856637</v>
+        <v>0.006885846202833943</v>
       </c>
       <c r="Q12">
-        <v>8.879684888888889E-06</v>
+        <v>1.703992333333333E-06</v>
       </c>
       <c r="R12">
-        <v>7.9917164E-05</v>
+        <v>1.5335931E-05</v>
       </c>
       <c r="S12">
-        <v>0.001044580372814874</v>
+        <v>0.0010356914426877</v>
       </c>
       <c r="T12">
-        <v>0.001044580372814874</v>
+        <v>0.0010356914426877</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1207,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1222,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01422266666666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="H13">
-        <v>0.042668</v>
+        <v>0.029549</v>
       </c>
       <c r="I13">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="J13">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1243,25 +1243,25 @@
         <v>0.01787933333333333</v>
       </c>
       <c r="N13">
-        <v>0.053638</v>
+        <v>0.05363800000000001</v>
       </c>
       <c r="O13">
-        <v>0.1912071380956285</v>
+        <v>0.7116435811707267</v>
       </c>
       <c r="P13">
-        <v>0.1912071380956285</v>
+        <v>0.7116435811707266</v>
       </c>
       <c r="Q13">
-        <v>0.0002542917982222222</v>
+        <v>0.0001761054735555555</v>
       </c>
       <c r="R13">
-        <v>0.002288626184</v>
+        <v>0.001584949262</v>
       </c>
       <c r="S13">
-        <v>0.02991414951257032</v>
+        <v>0.1070374134930306</v>
       </c>
       <c r="T13">
-        <v>0.02991414951257032</v>
+        <v>0.1070374134930306</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,13 +1269,13 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1284,46 +1284,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.01422266666666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="H14">
-        <v>0.042668</v>
+        <v>0.029549</v>
       </c>
       <c r="I14">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="J14">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.07204000000000001</v>
+        <v>0.004882333333333333</v>
       </c>
       <c r="N14">
-        <v>0.21612</v>
+        <v>0.014647</v>
       </c>
       <c r="O14">
-        <v>0.770418111883874</v>
+        <v>0.1943294592156239</v>
       </c>
       <c r="P14">
-        <v>0.7704181118838742</v>
+        <v>0.1943294592156238</v>
       </c>
       <c r="Q14">
-        <v>0.001024600906666667</v>
+        <v>4.808935588888889E-05</v>
       </c>
       <c r="R14">
-        <v>0.00922140816</v>
+        <v>0.000432804203</v>
       </c>
       <c r="S14">
-        <v>0.120531078575948</v>
+        <v>0.02922884886521531</v>
       </c>
       <c r="T14">
-        <v>0.120531078575948</v>
+        <v>0.02922884886521531</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,13 +1331,13 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1346,46 +1346,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.01422266666666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="H15">
-        <v>0.042668</v>
+        <v>0.029549</v>
       </c>
       <c r="I15">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="J15">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>0.002840666666666667</v>
+        <v>0.002042</v>
       </c>
       <c r="N15">
-        <v>0.008522</v>
+        <v>0.006126</v>
       </c>
       <c r="O15">
-        <v>0.03037897070828417</v>
+        <v>0.08127686674096482</v>
       </c>
       <c r="P15">
-        <v>0.03037897070828417</v>
+        <v>0.08127686674096481</v>
       </c>
       <c r="Q15">
-        <v>4.040185511111111E-05</v>
+        <v>2.011301933333333E-05</v>
       </c>
       <c r="R15">
-        <v>0.000363616696</v>
+        <v>0.000181017174</v>
       </c>
       <c r="S15">
-        <v>0.004752757040645144</v>
+        <v>0.01222475101715771</v>
       </c>
       <c r="T15">
-        <v>0.004752757040645145</v>
+        <v>0.01222475101715771</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1393,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1408,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.01422266666666667</v>
+        <v>0.009849666666666666</v>
       </c>
       <c r="H16">
-        <v>0.042668</v>
+        <v>0.029549</v>
       </c>
       <c r="I16">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="J16">
-        <v>0.1564489161362236</v>
+        <v>0.1504087387635016</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,338 +1426,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.0001233333333333333</v>
+        <v>0.0001473333333333333</v>
       </c>
       <c r="N16">
-        <v>0.00037</v>
+        <v>0.000442</v>
       </c>
       <c r="O16">
-        <v>0.001318964933356623</v>
+        <v>0.005864246669850874</v>
       </c>
       <c r="P16">
-        <v>0.001318964933356623</v>
+        <v>0.005864246669850873</v>
       </c>
       <c r="Q16">
-        <v>1.754128888888889E-06</v>
+        <v>1.451184222222222E-06</v>
       </c>
       <c r="R16">
-        <v>1.578716E-05</v>
+        <v>1.3060658E-05</v>
       </c>
       <c r="S16">
-        <v>0.0002063506342453301</v>
+        <v>0.0008820339454103343</v>
       </c>
       <c r="T16">
-        <v>0.0002063506342453301</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.011717</v>
-      </c>
-      <c r="H17">
-        <v>0.035151</v>
-      </c>
-      <c r="I17">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="J17">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.0006243333333333334</v>
-      </c>
-      <c r="N17">
-        <v>0.001873</v>
-      </c>
-      <c r="O17">
-        <v>0.006676814378856635</v>
-      </c>
-      <c r="P17">
-        <v>0.006676814378856637</v>
-      </c>
-      <c r="Q17">
-        <v>7.315313666666668E-06</v>
-      </c>
-      <c r="R17">
-        <v>6.5837823E-05</v>
-      </c>
-      <c r="S17">
-        <v>0.0008605522800416151</v>
-      </c>
-      <c r="T17">
-        <v>0.0008605522800416153</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G18">
-        <v>0.011717</v>
-      </c>
-      <c r="H18">
-        <v>0.035151</v>
-      </c>
-      <c r="I18">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="J18">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="K18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M18">
-        <v>0.01787933333333333</v>
-      </c>
-      <c r="N18">
-        <v>0.053638</v>
-      </c>
-      <c r="O18">
-        <v>0.1912071380956285</v>
-      </c>
-      <c r="P18">
-        <v>0.1912071380956285</v>
-      </c>
-      <c r="Q18">
-        <v>0.0002094921486666667</v>
-      </c>
-      <c r="R18">
-        <v>0.001885429338</v>
-      </c>
-      <c r="S18">
-        <v>0.0246440486902681</v>
-      </c>
-      <c r="T18">
-        <v>0.0246440486902681</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G19">
-        <v>0.011717</v>
-      </c>
-      <c r="H19">
-        <v>0.035151</v>
-      </c>
-      <c r="I19">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="J19">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.07204000000000001</v>
-      </c>
-      <c r="N19">
-        <v>0.21612</v>
-      </c>
-      <c r="O19">
-        <v>0.770418111883874</v>
-      </c>
-      <c r="P19">
-        <v>0.7704181118838742</v>
-      </c>
-      <c r="Q19">
-        <v>0.0008440926800000001</v>
-      </c>
-      <c r="R19">
-        <v>0.007596834120000001</v>
-      </c>
-      <c r="S19">
-        <v>0.09929661439540516</v>
-      </c>
-      <c r="T19">
-        <v>0.09929661439540519</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G20">
-        <v>0.011717</v>
-      </c>
-      <c r="H20">
-        <v>0.035151</v>
-      </c>
-      <c r="I20">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="J20">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.002840666666666667</v>
-      </c>
-      <c r="N20">
-        <v>0.008522</v>
-      </c>
-      <c r="O20">
-        <v>0.03037897070828417</v>
-      </c>
-      <c r="P20">
-        <v>0.03037897070828417</v>
-      </c>
-      <c r="Q20">
-        <v>3.328409133333333E-05</v>
-      </c>
-      <c r="R20">
-        <v>0.000299556822</v>
-      </c>
-      <c r="S20">
-        <v>0.003915443956494738</v>
-      </c>
-      <c r="T20">
-        <v>0.003915443956494739</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>0.011717</v>
-      </c>
-      <c r="H21">
-        <v>0.035151</v>
-      </c>
-      <c r="I21">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="J21">
-        <v>0.1288866563022499</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.0001233333333333333</v>
-      </c>
-      <c r="N21">
-        <v>0.00037</v>
-      </c>
-      <c r="O21">
-        <v>0.001318964933356623</v>
-      </c>
-      <c r="P21">
-        <v>0.001318964933356623</v>
-      </c>
-      <c r="Q21">
-        <v>1.445096666666667E-06</v>
-      </c>
-      <c r="R21">
-        <v>1.300587E-05</v>
-      </c>
-      <c r="S21">
-        <v>0.000169996980040255</v>
-      </c>
-      <c r="T21">
-        <v>0.000169996980040255</v>
+        <v>0.0008820339454103342</v>
       </c>
     </row>
   </sheetData>
